--- a/Code/Results/Cases/Case_5_127/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_127/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.28455422491387</v>
+        <v>17.39238349376416</v>
       </c>
       <c r="C2">
-        <v>5.86905186819294</v>
+        <v>5.26521440389474</v>
       </c>
       <c r="D2">
-        <v>11.48561905709993</v>
+        <v>11.08490074222781</v>
       </c>
       <c r="E2">
-        <v>8.016386805272004</v>
+        <v>11.15595206546577</v>
       </c>
       <c r="F2">
-        <v>65.6303693696581</v>
+        <v>55.9786459778256</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,10 +442,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.52906244310639</v>
+        <v>13.68452227586697</v>
       </c>
       <c r="L2">
-        <v>6.846334555082042</v>
+        <v>10.21633361865078</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.52878923807616</v>
+        <v>17.34390197730502</v>
       </c>
       <c r="C3">
-        <v>5.640440950705812</v>
+        <v>5.180421910722615</v>
       </c>
       <c r="D3">
-        <v>11.0807708051973</v>
+        <v>10.94327030893418</v>
       </c>
       <c r="E3">
-        <v>7.82864002115147</v>
+        <v>11.13865921087243</v>
       </c>
       <c r="F3">
-        <v>62.28498221936572</v>
+        <v>54.83860886638152</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -483,10 +483,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.744852863895503</v>
+        <v>13.68601242488004</v>
       </c>
       <c r="L3">
-        <v>6.678684440245846</v>
+        <v>10.21941548474439</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.06207091778718</v>
+        <v>17.32078501600713</v>
       </c>
       <c r="C4">
-        <v>5.497328661697064</v>
+        <v>5.126050064254225</v>
       </c>
       <c r="D4">
-        <v>10.8276279153964</v>
+        <v>10.85431888403606</v>
       </c>
       <c r="E4">
-        <v>7.715394518028733</v>
+        <v>11.12945863325354</v>
       </c>
       <c r="F4">
-        <v>60.17438710621512</v>
+        <v>54.12850773851144</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -524,10 +524,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.370638382913448</v>
+        <v>13.69238407058905</v>
       </c>
       <c r="L4">
-        <v>6.579256756880704</v>
+        <v>10.22337281166613</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.87142797358169</v>
+        <v>17.31304411219203</v>
       </c>
       <c r="C5">
-        <v>5.438266253502253</v>
+        <v>5.103313453015731</v>
       </c>
       <c r="D5">
-        <v>10.72333863655596</v>
+        <v>10.81758476478675</v>
       </c>
       <c r="E5">
-        <v>7.66977227686491</v>
+        <v>11.12606712026626</v>
       </c>
       <c r="F5">
-        <v>59.30053550669629</v>
+        <v>53.83687583918103</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -565,10 +565,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.246538334931204</v>
+        <v>13.69635027585462</v>
       </c>
       <c r="L5">
-        <v>6.539633113795854</v>
+        <v>10.22550463785311</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.83975206481771</v>
+        <v>17.31186033411974</v>
       </c>
       <c r="C6">
-        <v>5.428412695649327</v>
+        <v>5.099503077952554</v>
       </c>
       <c r="D6">
-        <v>10.70595383448405</v>
+        <v>10.81145619092508</v>
       </c>
       <c r="E6">
-        <v>7.662229009084917</v>
+        <v>11.12552560927629</v>
       </c>
       <c r="F6">
-        <v>59.15461773953835</v>
+        <v>53.78832255196463</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -606,10 +606,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.225980689499059</v>
+        <v>13.69709149257987</v>
       </c>
       <c r="L6">
-        <v>6.53310797898983</v>
+        <v>10.22588997657659</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.05950133776301</v>
+        <v>17.32067381202957</v>
       </c>
       <c r="C7">
-        <v>5.496535198670428</v>
+        <v>5.125745775879287</v>
       </c>
       <c r="D7">
-        <v>10.8262259853824</v>
+        <v>10.85382542177844</v>
       </c>
       <c r="E7">
-        <v>7.714777088043102</v>
+        <v>11.12941144369368</v>
       </c>
       <c r="F7">
-        <v>60.16265707549536</v>
+        <v>54.12458345809926</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -647,10 +647,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.368961550417801</v>
+        <v>13.69243201855069</v>
       </c>
       <c r="L7">
-        <v>6.578718743291692</v>
+        <v>10.22339946035141</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.02463817377315</v>
+        <v>17.37429161009148</v>
       </c>
       <c r="C8">
-        <v>5.79076225727442</v>
+        <v>5.236457678354028</v>
       </c>
       <c r="D8">
-        <v>11.34698075807831</v>
+        <v>11.03648823692742</v>
       </c>
       <c r="E8">
-        <v>7.951238358002468</v>
+        <v>11.14969622488079</v>
       </c>
       <c r="F8">
-        <v>64.48882541819403</v>
+        <v>55.58782715190901</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -688,10 +688,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.2631667286866</v>
+        <v>13.68390247110765</v>
       </c>
       <c r="L8">
-        <v>6.78780648519047</v>
+        <v>10.21696765057388</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.88915908371644</v>
+        <v>17.53178714232538</v>
       </c>
       <c r="C9">
-        <v>6.348773383779864</v>
+        <v>5.435214008443507</v>
       </c>
       <c r="D9">
-        <v>12.33194328573042</v>
+        <v>11.37827846676463</v>
       </c>
       <c r="E9">
-        <v>8.430581113315675</v>
+        <v>11.20065213200483</v>
       </c>
       <c r="F9">
-        <v>72.51306849215395</v>
+        <v>58.3650935013718</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.10386098460999</v>
+        <v>13.71052145337238</v>
       </c>
       <c r="L9">
-        <v>7.225338520406755</v>
+        <v>10.22073673742895</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.43302399144038</v>
+        <v>17.67869170758803</v>
       </c>
       <c r="C10">
-        <v>6.751813287979529</v>
+        <v>5.57003335069198</v>
       </c>
       <c r="D10">
-        <v>13.03462303727269</v>
+        <v>11.61858511635892</v>
       </c>
       <c r="E10">
-        <v>8.792064033330652</v>
+        <v>11.24480284124088</v>
       </c>
       <c r="F10">
-        <v>78.12591278800066</v>
+        <v>60.33429461897306</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -770,10 +770,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.36315913449453</v>
+        <v>13.7564834454268</v>
       </c>
       <c r="L10">
-        <v>7.563509258193522</v>
+        <v>10.233477230326</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.14456958430664</v>
+        <v>17.75209437277612</v>
       </c>
       <c r="C11">
-        <v>6.934926914852343</v>
+        <v>5.628931918819641</v>
       </c>
       <c r="D11">
-        <v>13.35032605294252</v>
+        <v>11.72539848105151</v>
       </c>
       <c r="E11">
-        <v>8.958633397422727</v>
+        <v>11.26632042125926</v>
       </c>
       <c r="F11">
-        <v>80.62084202777299</v>
+        <v>61.21173445020488</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -811,10 +811,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.91835302627124</v>
+        <v>13.78309369605076</v>
       </c>
       <c r="L11">
-        <v>7.721124367272125</v>
+        <v>10.24143052699367</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.41142401572553</v>
+        <v>17.78081536612217</v>
       </c>
       <c r="C12">
-        <v>7.004360730157266</v>
+        <v>5.650885577634046</v>
       </c>
       <c r="D12">
-        <v>13.46938056536412</v>
+        <v>11.76547277334662</v>
       </c>
       <c r="E12">
-        <v>9.022035223770537</v>
+        <v>11.27467211172668</v>
       </c>
       <c r="F12">
-        <v>81.55766565941198</v>
+        <v>61.54113215065977</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -852,10 +852,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.12629090693087</v>
+        <v>13.79398526552772</v>
       </c>
       <c r="L12">
-        <v>7.781377727113638</v>
+        <v>10.24475138932839</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.35406326006309</v>
+        <v>17.77458899381449</v>
       </c>
       <c r="C13">
-        <v>6.989400566230194</v>
+        <v>5.646173031961275</v>
       </c>
       <c r="D13">
-        <v>13.44376068056341</v>
+        <v>11.75685888559355</v>
       </c>
       <c r="E13">
-        <v>9.008365588832621</v>
+        <v>11.2728644214339</v>
       </c>
       <c r="F13">
-        <v>81.35624861642098</v>
+        <v>61.47032159145424</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -893,10 +893,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.08160600130157</v>
+        <v>13.79160342619226</v>
       </c>
       <c r="L13">
-        <v>7.7683752971673</v>
+        <v>10.24402245456677</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.16657432733486</v>
+        <v>17.75443885218387</v>
       </c>
       <c r="C14">
-        <v>6.940636624397417</v>
+        <v>5.63074507433194</v>
       </c>
       <c r="D14">
-        <v>13.36013017144004</v>
+        <v>11.72870298118672</v>
       </c>
       <c r="E14">
-        <v>8.96384282491824</v>
+        <v>11.26700345825355</v>
       </c>
       <c r="F14">
-        <v>80.69807126322945</v>
+        <v>61.2388929730492</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -934,10 +934,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.93550485545909</v>
+        <v>13.7839734553056</v>
       </c>
       <c r="L14">
-        <v>7.726069877967853</v>
+        <v>10.24169754843486</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.05140196587279</v>
+        <v>17.74221612893093</v>
       </c>
       <c r="C15">
-        <v>6.910783457831352</v>
+        <v>5.621249424181739</v>
       </c>
       <c r="D15">
-        <v>13.30884209424529</v>
+        <v>11.71140762566944</v>
       </c>
       <c r="E15">
-        <v>8.936614527222405</v>
+        <v>11.26343986247935</v>
       </c>
       <c r="F15">
-        <v>80.29389926067422</v>
+        <v>61.09675597878292</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -975,10 +975,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.84572152117763</v>
+        <v>13.77940582044155</v>
       </c>
       <c r="L15">
-        <v>7.700231499163134</v>
+        <v>10.24031369526088</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.38614648119276</v>
+        <v>17.67402527167921</v>
       </c>
       <c r="C16">
-        <v>6.739852033756801</v>
+        <v>5.566135233863638</v>
       </c>
       <c r="D16">
-        <v>13.01391733030179</v>
+        <v>11.61155306125455</v>
       </c>
       <c r="E16">
-        <v>8.781222582655051</v>
+        <v>11.24342523505672</v>
       </c>
       <c r="F16">
-        <v>77.96172236819697</v>
+        <v>60.27656245110121</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1016,10 +1016,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.32654008023468</v>
+        <v>13.75485873689943</v>
       </c>
       <c r="L16">
-        <v>7.553286592646101</v>
+        <v>10.23300078806658</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.973156814828</v>
+        <v>17.63386247659811</v>
       </c>
       <c r="C17">
-        <v>6.635015279431454</v>
+        <v>5.53170144436405</v>
       </c>
       <c r="D17">
-        <v>12.8320237511279</v>
+        <v>11.5496444962412</v>
       </c>
       <c r="E17">
-        <v>8.686450311492107</v>
+        <v>11.23151216919274</v>
       </c>
       <c r="F17">
-        <v>76.51631433102183</v>
+        <v>59.76852985596768</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.00367419428956</v>
+        <v>13.74125711328767</v>
       </c>
       <c r="L17">
-        <v>7.464122128231673</v>
+        <v>10.22906643214138</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.73375342140839</v>
+        <v>17.61138213081494</v>
       </c>
       <c r="C18">
-        <v>6.574685536160615</v>
+        <v>5.511667190922637</v>
       </c>
       <c r="D18">
-        <v>12.72702601317988</v>
+        <v>11.51380148566066</v>
       </c>
       <c r="E18">
-        <v>8.632138402282214</v>
+        <v>11.22479515931541</v>
       </c>
       <c r="F18">
-        <v>75.67942151402072</v>
+        <v>59.47460764524099</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.81629137567723</v>
+        <v>13.73397090240634</v>
       </c>
       <c r="L18">
-        <v>7.413190669547235</v>
+        <v>10.22700665973052</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.65236950802575</v>
+        <v>17.60387778875282</v>
       </c>
       <c r="C19">
-        <v>6.554250184755407</v>
+        <v>5.504844644128223</v>
       </c>
       <c r="D19">
-        <v>12.69140891516327</v>
+        <v>11.50162574763271</v>
       </c>
       <c r="E19">
-        <v>8.613783019595008</v>
+        <v>11.2225441709555</v>
       </c>
       <c r="F19">
-        <v>75.39510316274223</v>
+        <v>59.37480327075571</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1139,10 +1139,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.75255165263641</v>
+        <v>13.73159629339984</v>
       </c>
       <c r="L19">
-        <v>7.396006341697313</v>
+        <v>10.2263441806814</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.01731155813724</v>
+        <v>17.63807382518252</v>
       </c>
       <c r="C20">
-        <v>6.646177630758126</v>
+        <v>5.535390667738597</v>
       </c>
       <c r="D20">
-        <v>12.85142523302335</v>
+        <v>11.55625917422675</v>
       </c>
       <c r="E20">
-        <v>8.696518322581371</v>
+        <v>11.23276637462406</v>
       </c>
       <c r="F20">
-        <v>76.67075041071378</v>
+        <v>59.82279003051624</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.0382159502224</v>
+        <v>13.74264947572719</v>
       </c>
       <c r="L20">
-        <v>7.473577106938611</v>
+        <v>10.22946423171401</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.22171265879874</v>
+        <v>17.76033250605822</v>
       </c>
       <c r="C21">
-        <v>6.954956154786925</v>
+        <v>5.635286138782448</v>
       </c>
       <c r="D21">
-        <v>13.38470723325362</v>
+        <v>11.73698329863954</v>
       </c>
       <c r="E21">
-        <v>8.976911189683143</v>
+        <v>11.26871946567377</v>
       </c>
       <c r="F21">
-        <v>80.89160529688306</v>
+        <v>61.30694880769468</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1221,10 +1221,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.97847871830573</v>
+        <v>13.78619249534293</v>
       </c>
       <c r="L21">
-        <v>7.738480330862791</v>
+        <v>10.24237205048774</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.99389118732597</v>
+        <v>17.8456163570652</v>
       </c>
       <c r="C22">
-        <v>7.157374965494015</v>
+        <v>5.698533784816609</v>
       </c>
       <c r="D22">
-        <v>13.73040082884618</v>
+        <v>11.85291331348867</v>
       </c>
       <c r="E22">
-        <v>9.162079891550661</v>
+        <v>11.29340138786529</v>
       </c>
       <c r="F22">
-        <v>83.60416436928281</v>
+        <v>62.26010946330663</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1262,10 +1262,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.57971202982894</v>
+        <v>13.8193965974034</v>
       </c>
       <c r="L22">
-        <v>7.914941633773924</v>
+        <v>10.2526091581951</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.5830455540914</v>
+        <v>17.79961369054638</v>
       </c>
       <c r="C23">
-        <v>7.04923683193341</v>
+        <v>5.664964034080498</v>
       </c>
       <c r="D23">
-        <v>13.54612725856562</v>
+        <v>11.79124345780891</v>
       </c>
       <c r="E23">
-        <v>9.063067018157387</v>
+        <v>11.28012072316012</v>
       </c>
       <c r="F23">
-        <v>82.16043703576456</v>
+        <v>61.75300098460267</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.25995036639577</v>
+        <v>13.8012426954007</v>
       </c>
       <c r="L23">
-        <v>7.820444412564577</v>
+        <v>10.24698105692527</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.99735535176166</v>
+        <v>17.63616797362892</v>
       </c>
       <c r="C24">
-        <v>6.641131320657277</v>
+        <v>5.533723510547295</v>
       </c>
       <c r="D24">
-        <v>12.84265515106151</v>
+        <v>11.55326945892879</v>
       </c>
       <c r="E24">
-        <v>8.691966034309626</v>
+        <v>11.23219893709209</v>
       </c>
       <c r="F24">
-        <v>76.60094829389141</v>
+        <v>59.79826474258444</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.022605131051</v>
+        <v>13.74201832643</v>
       </c>
       <c r="L24">
-        <v>7.469301483663735</v>
+        <v>10.22928375681911</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.38849835162847</v>
+        <v>17.4836413287916</v>
       </c>
       <c r="C25">
-        <v>6.19941210215078</v>
+        <v>5.383412313841299</v>
       </c>
       <c r="D25">
-        <v>12.06930665159581</v>
+        <v>11.2876563393874</v>
       </c>
       <c r="E25">
-        <v>8.299277160913292</v>
+        <v>11.18568015730479</v>
       </c>
       <c r="F25">
-        <v>70.3923392701976</v>
+        <v>57.62524153061084</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.62302146668934</v>
+        <v>13.6986765167934</v>
       </c>
       <c r="L25">
-        <v>7.104057150960178</v>
+        <v>10.21796399885296</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_127/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_127/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.39238349376416</v>
+        <v>14.28455422491379</v>
       </c>
       <c r="C2">
-        <v>5.26521440389474</v>
+        <v>5.869051868192948</v>
       </c>
       <c r="D2">
-        <v>11.08490074222781</v>
+        <v>11.48561905709996</v>
       </c>
       <c r="E2">
-        <v>11.15595206546577</v>
+        <v>8.016386805271985</v>
       </c>
       <c r="F2">
-        <v>55.9786459778256</v>
+        <v>65.63036936965813</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,10 +442,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.68452227586697</v>
+        <v>10.52906244310646</v>
       </c>
       <c r="L2">
-        <v>10.21633361865078</v>
+        <v>6.846334555082066</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.34390197730502</v>
+        <v>13.52878923807621</v>
       </c>
       <c r="C3">
-        <v>5.180421910722615</v>
+        <v>5.640440950706065</v>
       </c>
       <c r="D3">
-        <v>10.94327030893418</v>
+        <v>11.08077080519733</v>
       </c>
       <c r="E3">
-        <v>11.13865921087243</v>
+        <v>7.828640021151475</v>
       </c>
       <c r="F3">
-        <v>54.83860886638152</v>
+        <v>62.28498221936584</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -483,10 +483,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.68601242488004</v>
+        <v>9.744852863895549</v>
       </c>
       <c r="L3">
-        <v>10.21941548474439</v>
+        <v>6.67868444024579</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.32078501600713</v>
+        <v>13.06207091778713</v>
       </c>
       <c r="C4">
-        <v>5.126050064254225</v>
+        <v>5.497328661697329</v>
       </c>
       <c r="D4">
-        <v>10.85431888403606</v>
+        <v>10.82762791539649</v>
       </c>
       <c r="E4">
-        <v>11.12945863325354</v>
+        <v>7.715394518028805</v>
       </c>
       <c r="F4">
-        <v>54.12850773851144</v>
+        <v>60.17438710621508</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -524,10 +524,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.69238407058905</v>
+        <v>9.370638382913393</v>
       </c>
       <c r="L4">
-        <v>10.22337281166613</v>
+        <v>6.579256756880728</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.31304411219203</v>
+        <v>12.87142797358167</v>
       </c>
       <c r="C5">
-        <v>5.103313453015731</v>
+        <v>5.438266253502388</v>
       </c>
       <c r="D5">
-        <v>10.81758476478675</v>
+        <v>10.72333863655604</v>
       </c>
       <c r="E5">
-        <v>11.12606712026626</v>
+        <v>7.66977227686483</v>
       </c>
       <c r="F5">
-        <v>53.83687583918103</v>
+        <v>59.30053550669626</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -565,10 +565,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.69635027585462</v>
+        <v>9.246538334931193</v>
       </c>
       <c r="L5">
-        <v>10.22550463785311</v>
+        <v>6.539633113795807</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.31186033411974</v>
+        <v>12.8397520648177</v>
       </c>
       <c r="C6">
-        <v>5.099503077952554</v>
+        <v>5.428412695649726</v>
       </c>
       <c r="D6">
-        <v>10.81145619092508</v>
+        <v>10.70595383448406</v>
       </c>
       <c r="E6">
-        <v>11.12552560927629</v>
+        <v>7.662229009084831</v>
       </c>
       <c r="F6">
-        <v>53.78832255196463</v>
+        <v>59.15461773953825</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -606,10 +606,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.69709149257987</v>
+        <v>9.225980689499018</v>
       </c>
       <c r="L6">
-        <v>10.22588997657659</v>
+        <v>6.533107978989686</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.32067381202957</v>
+        <v>13.05950133776294</v>
       </c>
       <c r="C7">
-        <v>5.125745775879287</v>
+        <v>5.496535198670824</v>
       </c>
       <c r="D7">
-        <v>10.85382542177844</v>
+        <v>10.82622598538237</v>
       </c>
       <c r="E7">
-        <v>11.12941144369368</v>
+        <v>7.714777088043297</v>
       </c>
       <c r="F7">
-        <v>54.12458345809926</v>
+        <v>60.16265707549537</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -647,10 +647,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.69243201855069</v>
+        <v>9.36896155041773</v>
       </c>
       <c r="L7">
-        <v>10.22339946035141</v>
+        <v>6.578718743291699</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.37429161009148</v>
+        <v>14.02463817377313</v>
       </c>
       <c r="C8">
-        <v>5.236457678354028</v>
+        <v>5.790762257274418</v>
       </c>
       <c r="D8">
-        <v>11.03648823692742</v>
+        <v>11.34698075807851</v>
       </c>
       <c r="E8">
-        <v>11.14969622488079</v>
+        <v>7.951238358002486</v>
       </c>
       <c r="F8">
-        <v>55.58782715190901</v>
+        <v>64.48882541819407</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -688,10 +688,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.68390247110765</v>
+        <v>10.26316672868662</v>
       </c>
       <c r="L8">
-        <v>10.21696765057388</v>
+        <v>6.787806485190501</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.53178714232538</v>
+        <v>15.88915908371641</v>
       </c>
       <c r="C9">
-        <v>5.435214008443507</v>
+        <v>6.348773383779744</v>
       </c>
       <c r="D9">
-        <v>11.37827846676463</v>
+        <v>12.3319432857302</v>
       </c>
       <c r="E9">
-        <v>11.20065213200483</v>
+        <v>8.43058111331567</v>
       </c>
       <c r="F9">
-        <v>58.3650935013718</v>
+        <v>72.51306849215349</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.71052145337238</v>
+        <v>12.10386098460995</v>
       </c>
       <c r="L9">
-        <v>10.22073673742895</v>
+        <v>7.225338520406782</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.67869170758803</v>
+        <v>17.43302399144042</v>
       </c>
       <c r="C10">
-        <v>5.57003335069198</v>
+        <v>6.751813287979916</v>
       </c>
       <c r="D10">
-        <v>11.61858511635892</v>
+        <v>13.03462303727297</v>
       </c>
       <c r="E10">
-        <v>11.24480284124088</v>
+        <v>8.79206403333073</v>
       </c>
       <c r="F10">
-        <v>60.33429461897306</v>
+        <v>78.1259127880016</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -770,10 +770,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.7564834454268</v>
+        <v>13.36315913449464</v>
       </c>
       <c r="L10">
-        <v>10.233477230326</v>
+        <v>7.563509258193479</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.75209437277612</v>
+        <v>18.14456958430657</v>
       </c>
       <c r="C11">
-        <v>5.628931918819641</v>
+        <v>6.934926914852224</v>
       </c>
       <c r="D11">
-        <v>11.72539848105151</v>
+        <v>13.35032605294234</v>
       </c>
       <c r="E11">
-        <v>11.26632042125926</v>
+        <v>8.958633397422682</v>
       </c>
       <c r="F11">
-        <v>61.21173445020488</v>
+        <v>80.62084202777199</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -811,10 +811,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.78309369605076</v>
+        <v>13.91835302627125</v>
       </c>
       <c r="L11">
-        <v>10.24143052699367</v>
+        <v>7.721124367272117</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.78081536612217</v>
+        <v>18.41142401572543</v>
       </c>
       <c r="C12">
-        <v>5.650885577634046</v>
+        <v>7.004360730157402</v>
       </c>
       <c r="D12">
-        <v>11.76547277334662</v>
+        <v>13.46938056536414</v>
       </c>
       <c r="E12">
-        <v>11.27467211172668</v>
+        <v>9.022035223770558</v>
       </c>
       <c r="F12">
-        <v>61.54113215065977</v>
+        <v>81.55766565941161</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -852,10 +852,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.79398526552772</v>
+        <v>14.12629090693079</v>
       </c>
       <c r="L12">
-        <v>10.24475138932839</v>
+        <v>7.781377727113628</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.77458899381449</v>
+        <v>18.35406326006312</v>
       </c>
       <c r="C13">
-        <v>5.646173031961275</v>
+        <v>6.989400566229921</v>
       </c>
       <c r="D13">
-        <v>11.75685888559355</v>
+        <v>13.44376068056349</v>
       </c>
       <c r="E13">
-        <v>11.2728644214339</v>
+        <v>9.008365588832632</v>
       </c>
       <c r="F13">
-        <v>61.47032159145424</v>
+        <v>81.35624861642154</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -893,10 +893,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.79160342619226</v>
+        <v>14.08160600130155</v>
       </c>
       <c r="L13">
-        <v>10.24402245456677</v>
+        <v>7.768375297167269</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.75443885218387</v>
+        <v>18.16657432733493</v>
       </c>
       <c r="C14">
-        <v>5.63074507433194</v>
+        <v>6.940636624397419</v>
       </c>
       <c r="D14">
-        <v>11.72870298118672</v>
+        <v>13.36013017144022</v>
       </c>
       <c r="E14">
-        <v>11.26700345825355</v>
+        <v>8.963842824918258</v>
       </c>
       <c r="F14">
-        <v>61.2388929730492</v>
+        <v>80.69807126322961</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -934,10 +934,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.7839734553056</v>
+        <v>13.93550485545917</v>
       </c>
       <c r="L14">
-        <v>10.24169754843486</v>
+        <v>7.72606987796784</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.74221612893093</v>
+        <v>18.05140196587275</v>
       </c>
       <c r="C15">
-        <v>5.621249424181739</v>
+        <v>6.910783457831485</v>
       </c>
       <c r="D15">
-        <v>11.71140762566944</v>
+        <v>13.30884209424518</v>
       </c>
       <c r="E15">
-        <v>11.26343986247935</v>
+        <v>8.936614527222405</v>
       </c>
       <c r="F15">
-        <v>61.09675597878292</v>
+        <v>80.2938992606741</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -975,10 +975,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.77940582044155</v>
+        <v>13.84572152117773</v>
       </c>
       <c r="L15">
-        <v>10.24031369526088</v>
+        <v>7.700231499163096</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.67402527167921</v>
+        <v>17.38614648119271</v>
       </c>
       <c r="C16">
-        <v>5.566135233863638</v>
+        <v>6.739852033756947</v>
       </c>
       <c r="D16">
-        <v>11.61155306125455</v>
+        <v>13.01391733030178</v>
       </c>
       <c r="E16">
-        <v>11.24342523505672</v>
+        <v>8.781222582655007</v>
       </c>
       <c r="F16">
-        <v>60.27656245110121</v>
+        <v>77.96172236819658</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1016,10 +1016,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.75485873689943</v>
+        <v>13.32654008023466</v>
       </c>
       <c r="L16">
-        <v>10.23300078806658</v>
+        <v>7.553286592646052</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.63386247659811</v>
+        <v>16.97315681482806</v>
       </c>
       <c r="C17">
-        <v>5.53170144436405</v>
+        <v>6.635015279431309</v>
       </c>
       <c r="D17">
-        <v>11.5496444962412</v>
+        <v>12.83202375112818</v>
       </c>
       <c r="E17">
-        <v>11.23151216919274</v>
+        <v>8.686450311492079</v>
       </c>
       <c r="F17">
-        <v>59.76852985596768</v>
+        <v>76.51631433102251</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.74125711328767</v>
+        <v>13.00367419428951</v>
       </c>
       <c r="L17">
-        <v>10.22906643214138</v>
+        <v>7.46412212823168</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.61138213081494</v>
+        <v>16.73375342140848</v>
       </c>
       <c r="C18">
-        <v>5.511667190922637</v>
+        <v>6.574685536160484</v>
       </c>
       <c r="D18">
-        <v>11.51380148566066</v>
+        <v>12.72702601317998</v>
       </c>
       <c r="E18">
-        <v>11.22479515931541</v>
+        <v>8.632138402282171</v>
       </c>
       <c r="F18">
-        <v>59.47460764524099</v>
+        <v>75.6794215140208</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.73397090240634</v>
+        <v>12.8162913756773</v>
       </c>
       <c r="L18">
-        <v>10.22700665973052</v>
+        <v>7.41319066954726</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.60387778875282</v>
+        <v>16.65236950802582</v>
       </c>
       <c r="C19">
-        <v>5.504844644128223</v>
+        <v>6.554250184755269</v>
       </c>
       <c r="D19">
-        <v>11.50162574763271</v>
+        <v>12.69140891516339</v>
       </c>
       <c r="E19">
-        <v>11.2225441709555</v>
+        <v>8.613783019594983</v>
       </c>
       <c r="F19">
-        <v>59.37480327075571</v>
+        <v>75.39510316274219</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1139,10 +1139,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.73159629339984</v>
+        <v>12.75255165263645</v>
       </c>
       <c r="L19">
-        <v>10.2263441806814</v>
+        <v>7.396006341697273</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.63807382518252</v>
+        <v>17.01731155813728</v>
       </c>
       <c r="C20">
-        <v>5.535390667738597</v>
+        <v>6.646177630758119</v>
       </c>
       <c r="D20">
-        <v>11.55625917422675</v>
+        <v>12.85142523302336</v>
       </c>
       <c r="E20">
-        <v>11.23276637462406</v>
+        <v>8.696518322581426</v>
       </c>
       <c r="F20">
-        <v>59.82279003051624</v>
+        <v>76.67075041071392</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.74264947572719</v>
+        <v>13.03821595022246</v>
       </c>
       <c r="L20">
-        <v>10.22946423171401</v>
+        <v>7.473577106938584</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.76033250605822</v>
+        <v>18.22171265879875</v>
       </c>
       <c r="C21">
-        <v>5.635286138782448</v>
+        <v>6.954956154787055</v>
       </c>
       <c r="D21">
-        <v>11.73698329863954</v>
+        <v>13.38470723325353</v>
       </c>
       <c r="E21">
-        <v>11.26871946567377</v>
+        <v>8.976911189683172</v>
       </c>
       <c r="F21">
-        <v>61.30694880769468</v>
+        <v>80.89160529688293</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1221,10 +1221,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.78619249534293</v>
+        <v>13.97847871830579</v>
       </c>
       <c r="L21">
-        <v>10.24237205048774</v>
+        <v>7.738480330862791</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.8456163570652</v>
+        <v>18.99389118732612</v>
       </c>
       <c r="C22">
-        <v>5.698533784816609</v>
+        <v>7.157374965493875</v>
       </c>
       <c r="D22">
-        <v>11.85291331348867</v>
+        <v>13.73040082884627</v>
       </c>
       <c r="E22">
-        <v>11.29340138786529</v>
+        <v>9.162079891550686</v>
       </c>
       <c r="F22">
-        <v>62.26010946330663</v>
+        <v>83.60416436928314</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1262,10 +1262,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.8193965974034</v>
+        <v>14.579712029829</v>
       </c>
       <c r="L22">
-        <v>10.2526091581951</v>
+        <v>7.91494163377391</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.79961369054638</v>
+        <v>18.58304555409144</v>
       </c>
       <c r="C23">
-        <v>5.664964034080498</v>
+        <v>7.049236831933138</v>
       </c>
       <c r="D23">
-        <v>11.79124345780891</v>
+        <v>13.54612725856575</v>
       </c>
       <c r="E23">
-        <v>11.28012072316012</v>
+        <v>9.063067018157426</v>
       </c>
       <c r="F23">
-        <v>61.75300098460267</v>
+        <v>82.160437035765</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.8012426954007</v>
+        <v>14.25995036639585</v>
       </c>
       <c r="L23">
-        <v>10.24698105692527</v>
+        <v>7.82044441256458</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.63616797362892</v>
+        <v>16.99735535176165</v>
       </c>
       <c r="C24">
-        <v>5.533723510547295</v>
+        <v>6.641131320657554</v>
       </c>
       <c r="D24">
-        <v>11.55326945892879</v>
+        <v>12.84265515106158</v>
       </c>
       <c r="E24">
-        <v>11.23219893709209</v>
+        <v>8.691966034309608</v>
       </c>
       <c r="F24">
-        <v>59.79826474258444</v>
+        <v>76.60094829389163</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.74201832643</v>
+        <v>13.0226051310511</v>
       </c>
       <c r="L24">
-        <v>10.22928375681911</v>
+        <v>7.46930148366371</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.4836413287916</v>
+        <v>15.38849835162844</v>
       </c>
       <c r="C25">
-        <v>5.383412313841299</v>
+        <v>6.199412102150772</v>
       </c>
       <c r="D25">
-        <v>11.2876563393874</v>
+        <v>12.06930665159576</v>
       </c>
       <c r="E25">
-        <v>11.18568015730479</v>
+        <v>8.299277160913295</v>
       </c>
       <c r="F25">
-        <v>57.62524153061084</v>
+        <v>70.39233927019798</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.6986765167934</v>
+        <v>11.62302146668939</v>
       </c>
       <c r="L25">
-        <v>10.21796399885296</v>
+        <v>7.104057150960172</v>
       </c>
       <c r="M25">
         <v>0</v>
